--- a/exposan/bwaise/results/sysC.xlsx
+++ b/exposan/bwaise/results/sysC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
   <si>
     <t>Unit operation</t>
   </si>
@@ -39,6 +39,9 @@
     <t>C7</t>
   </si>
   <si>
+    <t>C5</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>Facultative lagoon</t>
   </si>
   <si>
+    <t>Lumped cost</t>
+  </si>
+  <si>
     <t>Trucking</t>
   </si>
   <si>
@@ -117,126 +123,126 @@
     <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
+    <t>C7_N2O</t>
+  </si>
+  <si>
+    <t>facultative_treated</t>
+  </si>
+  <si>
+    <t>feces</t>
+  </si>
+  <si>
+    <t>C6_N2O</t>
+  </si>
+  <si>
+    <t>C_sol_non_fertilizers</t>
+  </si>
+  <si>
+    <t>HAP</t>
+  </si>
+  <si>
     <t>C_liq_P</t>
   </si>
   <si>
-    <t>C6_N2O</t>
+    <t>liquid_fertilizer</t>
+  </si>
+  <si>
+    <t>C_liq_N</t>
+  </si>
+  <si>
+    <t>loss_l</t>
+  </si>
+  <si>
+    <t>liq_waste</t>
+  </si>
+  <si>
+    <t>evaporated</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>flushing_water</t>
+  </si>
+  <si>
+    <t>C7_CH4</t>
+  </si>
+  <si>
+    <t>C_liq_non_fertilizers</t>
+  </si>
+  <si>
+    <t>C2_CH4</t>
+  </si>
+  <si>
+    <t>C_sol_K</t>
+  </si>
+  <si>
+    <t>loss_s</t>
+  </si>
+  <si>
+    <t>reuse_loss</t>
+  </si>
+  <si>
+    <t>anaerobic_treated</t>
+  </si>
+  <si>
+    <t>sol_waste</t>
+  </si>
+  <si>
+    <t>C_CH4</t>
+  </si>
+  <si>
+    <t>C_sol_P</t>
+  </si>
+  <si>
+    <t>ws7</t>
+  </si>
+  <si>
+    <t>C8_CH4</t>
+  </si>
+  <si>
+    <t>cleaning_water</t>
+  </si>
+  <si>
+    <t>C_sol_N</t>
+  </si>
+  <si>
+    <t>C2_N2O</t>
+  </si>
+  <si>
+    <t>transported_s</t>
+  </si>
+  <si>
+    <t>C6_CH4</t>
   </si>
   <si>
     <t>struvite</t>
   </si>
   <si>
-    <t>flushing_water</t>
-  </si>
-  <si>
-    <t>loss_s</t>
+    <t>toilet_paper</t>
+  </si>
+  <si>
+    <t>C_N2O</t>
+  </si>
+  <si>
+    <t>transported_l</t>
+  </si>
+  <si>
+    <t>ws8</t>
   </si>
   <si>
     <t>C8_N2O</t>
   </si>
   <si>
-    <t>facultative_treated</t>
-  </si>
-  <si>
-    <t>HAP</t>
-  </si>
-  <si>
-    <t>C_sol_P</t>
-  </si>
-  <si>
-    <t>cleaning_water</t>
-  </si>
-  <si>
-    <t>ws7</t>
-  </si>
-  <si>
-    <t>liquid_fertilizer</t>
-  </si>
-  <si>
-    <t>C_CH4</t>
-  </si>
-  <si>
-    <t>C2_CH4</t>
-  </si>
-  <si>
-    <t>C7_CH4</t>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>dried_sludge</t>
   </si>
   <si>
     <t>C_liq_K</t>
   </si>
   <si>
-    <t>transported_s</t>
-  </si>
-  <si>
-    <t>ws8</t>
-  </si>
-  <si>
-    <t>desiccant</t>
-  </si>
-  <si>
-    <t>reuse_loss</t>
-  </si>
-  <si>
-    <t>C_N2O</t>
-  </si>
-  <si>
-    <t>C2_N2O</t>
-  </si>
-  <si>
-    <t>C7_N2O</t>
-  </si>
-  <si>
-    <t>C_sol_K</t>
-  </si>
-  <si>
-    <t>liq_waste</t>
-  </si>
-  <si>
-    <t>anaerobic_treated</t>
-  </si>
-  <si>
-    <t>C_sol_non_fertilizers</t>
-  </si>
-  <si>
-    <t>C_liq_N</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>transported_l</t>
-  </si>
-  <si>
-    <t>dried_sludge</t>
-  </si>
-  <si>
-    <t>sol_waste</t>
-  </si>
-  <si>
-    <t>C6_CH4</t>
-  </si>
-  <si>
-    <t>C_sol_N</t>
-  </si>
-  <si>
-    <t>C_liq_non_fertilizers</t>
-  </si>
-  <si>
-    <t>C8_CH4</t>
-  </si>
-  <si>
-    <t>feces</t>
-  </si>
-  <si>
-    <t>loss_l</t>
-  </si>
-  <si>
-    <t>evaporated</t>
-  </si>
-  <si>
-    <t>toilet_paper</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -306,39 +312,36 @@
     <t>Struvite</t>
   </si>
   <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
     <t>C13</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>liquid</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>Unit Operation</t>
   </si>
   <si>
@@ -393,12 +396,21 @@
     <t>USD/hr</t>
   </si>
   <si>
+    <t>Purchase cost</t>
+  </si>
+  <si>
+    <t>Lumped WWTP</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Total fee</t>
+  </si>
+  <si>
     <t>Parallel trucks</t>
   </si>
   <si>
-    <t>Purchase cost</t>
-  </si>
-  <si>
     <t>Number of users per toilet</t>
   </si>
   <si>
@@ -441,16 +453,10 @@
     <t>Wood</t>
   </si>
   <si>
-    <t>Single toilet</t>
-  </si>
-  <si>
     <t>Total toilets</t>
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <t>Number of covered bed</t>
@@ -897,7 +903,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -939,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -956,16 +962,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>18.6067</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.009710400000000001</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>18.6067</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -973,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -990,16 +996,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>15.7841061875</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.7841061875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1007,15 +1013,32 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>15.7835531875</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>15.7835531875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -1034,55 +1057,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1090,10 +1113,10 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>15.7841061875</v>
+        <v>34.3902531875</v>
       </c>
       <c r="C2">
-        <v>15.7841061875</v>
+        <v>34.3902531875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1129,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-15.7841061875</v>
+        <v>-34.3902531875</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>-15.7841061875</v>
+        <v>-34.3902531875</v>
       </c>
       <c r="R2">
-        <v>-15.7841061875</v>
+        <v>-34.3902531875</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1155,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.25554877419375</v>
+        <v>4.91436718049375</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1170,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.7282297109376</v>
+        <v>12.72894656387081</v>
       </c>
       <c r="K3">
         <v>0.5737630384135953</v>
@@ -1182,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-14.41001544671776</v>
+        <v>-17.06955070595096</v>
       </c>
       <c r="O3">
-        <v>-12.15446667252401</v>
+        <v>-12.15518352545721</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-11.57568254526096</v>
+        <v>-11.5763652623402</v>
       </c>
       <c r="R3">
-        <v>-27.35978873276096</v>
+        <v>-45.9666184498402</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1211,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.86552760531875</v>
+        <v>8.422173005618751</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1226,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.7282297109376</v>
+        <v>12.72894656387081</v>
       </c>
       <c r="K4">
         <v>0.5737630384135953</v>
@@ -1238,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-16.01999427784276</v>
+        <v>-20.57735653107596</v>
       </c>
       <c r="O4">
-        <v>-12.15446667252401</v>
+        <v>-12.15518352545721</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-11.0244595669152</v>
+        <v>-11.02510977365733</v>
       </c>
       <c r="R4">
-        <v>-38.38424829967616</v>
+        <v>-56.99172822349754</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1267,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.76064017219375</v>
+        <v>6.01485528249375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1282,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.7282297109376</v>
+        <v>12.72894656387081</v>
       </c>
       <c r="K5">
         <v>0.5737630384135953</v>
@@ -1294,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-14.91510684471776</v>
+        <v>-18.17003880795096</v>
       </c>
       <c r="O5">
-        <v>-12.15446667252401</v>
+        <v>-12.15518352545721</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-10.499485301824</v>
+        <v>-10.50010454634032</v>
       </c>
       <c r="R5">
-        <v>-48.88373360150015</v>
+        <v>-67.49183276983786</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1323,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.97143486281875</v>
+        <v>4.29534262311875</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1338,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.7282297109376</v>
+        <v>12.72894656387081</v>
       </c>
       <c r="K6">
         <v>0.5737630384135953</v>
@@ -1350,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-14.12590153534276</v>
+        <v>-16.45052614857596</v>
       </c>
       <c r="O6">
-        <v>-12.15446667252401</v>
+        <v>-12.15518352545721</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-9.999509811260952</v>
+        <v>-10.00009956794316</v>
       </c>
       <c r="R6">
-        <v>-58.8832434127611</v>
+        <v>-77.49193233778101</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1379,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.40952068254375</v>
+        <v>3.071049609643751</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1394,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.7282297109376</v>
+        <v>12.72894656387081</v>
       </c>
       <c r="K7">
         <v>0.5737630384135953</v>
@@ -1406,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-13.56398735506776</v>
+        <v>-15.22623313510096</v>
       </c>
       <c r="O7">
-        <v>-12.15446667252401</v>
+        <v>-12.15518352545721</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-9.523342677391382</v>
+        <v>-9.523904350422056</v>
       </c>
       <c r="R7">
-        <v>-68.40658609015249</v>
+        <v>-87.01583668820307</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1435,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.407942271925</v>
+        <v>3.067610584325</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1450,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.7282297109376</v>
+        <v>12.72894656387081</v>
       </c>
       <c r="K8">
         <v>0.5737630384135953</v>
@@ -1462,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-13.56240894444901</v>
+        <v>-15.22279410978221</v>
       </c>
       <c r="O8">
-        <v>-12.15446667252401</v>
+        <v>-12.15518352545721</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-9.069850168944173</v>
+        <v>-9.070385095640052</v>
       </c>
       <c r="R8">
-        <v>-77.47643625909666</v>
+        <v>-96.08622178384311</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1491,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.40952068254375</v>
+        <v>3.071049609643751</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1506,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.7282297109376</v>
+        <v>12.72894656387081</v>
       </c>
       <c r="K9">
         <v>0.5737630384135953</v>
@@ -1518,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-13.56398735506776</v>
+        <v>-15.22623313510096</v>
       </c>
       <c r="O9">
-        <v>-12.15446667252401</v>
+        <v>-12.15518352545721</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-8.637952541851593</v>
+        <v>-8.63846199584767</v>
       </c>
       <c r="R9">
-        <v>-86.11438880094825</v>
+        <v>-104.7246837796908</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1547,7 +1570,7 @@
         <v>-0</v>
       </c>
       <c r="E10">
-        <v>0.7039711359625</v>
+        <v>1.5338052921625</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1562,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.7282297109376</v>
+        <v>12.72894656387081</v>
       </c>
       <c r="K10">
         <v>0.5737630384135953</v>
@@ -1574,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-12.85843780848651</v>
+        <v>-13.68898881761971</v>
       </c>
       <c r="O10">
-        <v>-12.15446667252401</v>
+        <v>-12.15518352545721</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-8.226621468430087</v>
+        <v>-8.227106662712066</v>
       </c>
       <c r="R10">
-        <v>-94.34101026937833</v>
+        <v>-112.9517904424029</v>
       </c>
     </row>
   </sheetData>
@@ -1604,504 +1627,504 @@
   <sheetData>
     <row r="2" spans="1:41">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" t="s">
         <v>103</v>
-      </c>
-      <c r="M3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
       </c>
       <c r="P3" t="s">
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="R3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T3" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V3" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X3" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="Y3" t="s">
         <v>102</v>
       </c>
       <c r="Z3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AF3" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AG3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO3" t="s">
         <v>105</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>103</v>
+      </c>
+      <c r="U4" t="s">
+        <v>103</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="X4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="AA4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="s">
         <v>103</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AD4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH4" t="s">
         <v>9</v>
       </c>
-      <c r="T4" t="s">
-        <v>8</v>
-      </c>
-      <c r="U4" t="s">
-        <v>96</v>
-      </c>
-      <c r="V4" t="s">
-        <v>96</v>
-      </c>
-      <c r="W4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AI4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AK4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO4" t="s">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
         <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="T5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="U5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AA5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AE5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AH5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AI5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AO5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>298.15</v>
@@ -2226,203 +2249,203 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7">
+        <v>0.07050323077830421</v>
+      </c>
+      <c r="C7">
+        <v>25045.94921944927</v>
+      </c>
+      <c r="D7">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>13163.80440493071</v>
+      </c>
+      <c r="G7">
+        <v>13.35498580967109</v>
+      </c>
+      <c r="H7">
         <v>3.610942069701285</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.416666667</v>
-      </c>
-      <c r="F7">
+      <c r="I7">
+        <v>25040.48807971211</v>
+      </c>
+      <c r="J7">
+        <v>99.26410856070689</v>
+      </c>
+      <c r="K7">
+        <v>532.5075282151539</v>
+      </c>
+      <c r="L7">
+        <v>26625.37641075773</v>
+      </c>
+      <c r="M7">
+        <v>97328.93178550167</v>
+      </c>
+      <c r="N7">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="O7">
+        <v>0.4166666669999999</v>
+      </c>
+      <c r="P7">
+        <v>0.9939598748202108</v>
+      </c>
+      <c r="Q7">
+        <v>24907.19607091476</v>
+      </c>
+      <c r="R7">
+        <v>0.1687239654291444</v>
+      </c>
+      <c r="S7">
+        <v>10.905142199952</v>
+      </c>
+      <c r="T7">
         <v>2260.228413530177</v>
-      </c>
-      <c r="G7">
-        <v>0.04941379251340255</v>
-      </c>
-      <c r="H7">
-        <v>25045.94921944927</v>
-      </c>
-      <c r="I7">
-        <v>13.35498580967109</v>
-      </c>
-      <c r="J7">
-        <v>7.437287781173251</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>26092.86888254258</v>
-      </c>
-      <c r="M7">
-        <v>25040.48807971211</v>
-      </c>
-      <c r="N7">
-        <v>24.77883129233702</v>
-      </c>
-      <c r="O7">
-        <v>0.1687239654291444</v>
-      </c>
-      <c r="P7">
-        <v>0.9931701037207804</v>
-      </c>
-      <c r="Q7">
-        <v>30.41695816694304</v>
-      </c>
-      <c r="R7">
-        <v>110751.1922629785</v>
-      </c>
-      <c r="S7">
-        <v>110751.1922629785</v>
-      </c>
-      <c r="T7">
-        <v>0.0063308</v>
       </c>
       <c r="U7">
         <v>5.46113973715579</v>
       </c>
       <c r="V7">
+        <v>25293.95457086856</v>
+      </c>
+      <c r="W7">
+        <v>113011.4206765087</v>
+      </c>
+      <c r="X7">
+        <v>24.79015103914261</v>
+      </c>
+      <c r="Y7">
+        <v>7.437287781173251</v>
+      </c>
+      <c r="Z7">
+        <v>26092.86888254258</v>
+      </c>
+      <c r="AA7">
+        <v>10.37466886795711</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>8.834627801783148</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>110751.1922629785</v>
+      </c>
+      <c r="AF7">
+        <v>13.25279833093614</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0.000281583</v>
+      </c>
+      <c r="AI7">
         <v>0.1199170232917068</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0.07050323077830421</v>
-      </c>
-      <c r="Y7">
-        <v>10.905142199952</v>
-      </c>
-      <c r="Z7">
-        <v>26625.37641075773</v>
-      </c>
-      <c r="AA7">
-        <v>25293.95457086856</v>
-      </c>
-      <c r="AB7">
-        <v>13163.80440493071</v>
-      </c>
-      <c r="AC7">
-        <v>99.26410856070689</v>
-      </c>
-      <c r="AD7">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="AE7">
+      <c r="AJ7">
         <v>26092.86888254258</v>
       </c>
-      <c r="AF7">
+      <c r="AK7">
+        <v>110751.1922629785</v>
+      </c>
+      <c r="AL7">
+        <v>0.04941379251340255</v>
+      </c>
+      <c r="AM7">
+        <v>0.0063308</v>
+      </c>
+      <c r="AN7">
         <v>13190.98146271362</v>
       </c>
-      <c r="AG7">
-        <v>113011.4206765087</v>
-      </c>
-      <c r="AH7">
-        <v>13.2422680496104</v>
-      </c>
-      <c r="AI7">
-        <v>8.834627801783148</v>
-      </c>
-      <c r="AJ7">
-        <v>24907.19607091476</v>
-      </c>
-      <c r="AK7">
-        <v>10.37466917357669</v>
-      </c>
-      <c r="AL7">
-        <v>0.01041666666666667</v>
-      </c>
-      <c r="AM7">
-        <v>532.5075282151539</v>
-      </c>
-      <c r="AN7">
-        <v>97328.93178550167</v>
-      </c>
       <c r="AO7">
-        <v>0.000281583</v>
+        <v>30.41695816694304</v>
       </c>
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.3477581117149113</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.06574463999999999</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.3304422573549614</v>
+      </c>
+      <c r="J9">
+        <v>83.35777680680707</v>
+      </c>
+      <c r="K9">
+        <v>0.344551709667977</v>
+      </c>
+      <c r="L9">
+        <v>0.344551709667977</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.3659002285714285</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>0.00258606504612227</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.3477581117149113</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.3445517096679769</v>
-      </c>
-      <c r="M9">
-        <v>0.3304422573549614</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0.002586065046122275</v>
-      </c>
-      <c r="S9">
-        <v>0.002586065046122275</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
       </c>
       <c r="U9">
         <v>79.74463597226557</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.3554344402111291</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.002586065046122275</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2431,46 +2454,46 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.344551709667977</v>
+        <v>0.3445517096679769</v>
       </c>
       <c r="AA9">
-        <v>0.3554344402111291</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>83.35777680680707</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.3659002285714285</v>
+        <v>0</v>
       </c>
       <c r="AE9">
+        <v>0.002586065046122275</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>0.3445517096679769</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
+      <c r="AK9">
         <v>0.002586065046122275</v>
       </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
       <c r="AL9">
-        <v>0.06574463999999999</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.344551709667977</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2481,73 +2504,73 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.06730386697103855</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.26297856</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.06597217452318961</v>
+      </c>
+      <c r="J10">
+        <v>16.64222319319292</v>
+      </c>
+      <c r="K10">
+        <v>0.06460344556274587</v>
+      </c>
+      <c r="L10">
+        <v>0.06460344556274571</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.06457062857142859</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>0.01106945922484128</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.06730386697103855</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.06460344556274569</v>
-      </c>
-      <c r="M10">
-        <v>0.06597217452318961</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0.0110694592248413</v>
-      </c>
-      <c r="S10">
-        <v>0.0110694592248413</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
       </c>
       <c r="U10">
         <v>6.173397186526233</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.06664395753958674</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.0110694592248413</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -2556,49 +2579,49 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.06460344556274571</v>
+        <v>0.06460344556274569</v>
       </c>
       <c r="AA10">
-        <v>0.06664395753958674</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>16.64222319319292</v>
+        <v>100</v>
       </c>
       <c r="AD10">
-        <v>0.06457062857142859</v>
+        <v>0</v>
       </c>
       <c r="AE10">
+        <v>0.0110694592248413</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>0.06460344556274569</v>
       </c>
-      <c r="AF10">
+      <c r="AK10">
+        <v>0.0110694592248413</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0.06697475716083455</v>
-      </c>
-      <c r="AG10">
-        <v>0.0110694592248413</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>100</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0.26297856</v>
-      </c>
-      <c r="AM10">
-        <v>0.06460344556274587</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2606,46 +2629,46 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.01471149978272747</v>
+      </c>
+      <c r="D11">
+        <v>0.15953652</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>100</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.006715311708350196</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.01471149978272747</v>
-      </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01442041408380887</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.03530308205651645</v>
       </c>
       <c r="L11">
         <v>0.03530308205651655</v>
       </c>
       <c r="M11">
-        <v>0.01442041408380887</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.04455919285714285</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2657,34 +2680,34 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.006715311708350213</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006715311708350213</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.006715311708350196</v>
       </c>
       <c r="U11">
         <v>1.349401385916672</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.03641813654205105</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.006715311708350213</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z11">
         <v>0.03530308205651655</v>
       </c>
       <c r="AA11">
-        <v>0.03641813654205105</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2693,37 +2716,37 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.04455919285714286</v>
+        <v>0</v>
       </c>
       <c r="AE11">
+        <v>0.006715311708350213</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>0.03530308205651655</v>
       </c>
-      <c r="AF11">
+      <c r="AK11">
+        <v>0.006715311708350213</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>0.05638161043737278</v>
-      </c>
-      <c r="AG11">
-        <v>0.006715311708350213</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0.15953652</v>
-      </c>
-      <c r="AM11">
-        <v>0.03530308205651678</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2731,171 +2754,171 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1239230829037451</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.23392512</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.121471107392619</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.1189509384919097</v>
+      </c>
+      <c r="L12">
+        <v>0.1189509384919103</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.1188905142857143</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
         <v>0.009846523524602566</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.1239230829037451</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.1189509384919102</v>
-      </c>
-      <c r="M12">
-        <v>0.121471107392619</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>100</v>
-      </c>
-      <c r="R12">
-        <v>0.009846523524602569</v>
-      </c>
-      <c r="S12">
-        <v>0.009846523524602569</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
       </c>
       <c r="U12">
         <v>11.36675269599046</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>0.1227080262530186</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.009846523524602569</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.1189509384919102</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.009846523524602569</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0.1189509384919102</v>
+      </c>
+      <c r="AK12">
+        <v>0.009846523524602569</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0.08267119645931652</v>
+      </c>
+      <c r="AO12">
         <v>100</v>
-      </c>
-      <c r="Z12">
-        <v>0.1189509384919103</v>
-      </c>
-      <c r="AA12">
-        <v>0.1227080262530186</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0.1188905142857143</v>
-      </c>
-      <c r="AE12">
-        <v>0.1189509384919102</v>
-      </c>
-      <c r="AF12">
-        <v>0.08267119645931652</v>
-      </c>
-      <c r="AG12">
-        <v>0.009846523524602569</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0.23392512</v>
-      </c>
-      <c r="AM12">
-        <v>0.1189509384919097</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.01489042053862582</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.004209263000315029</v>
+        <v>0.03541384249516179</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.01489042053862582</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01459579466541833</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.01429297477197634</v>
       </c>
       <c r="L13">
         <v>0.01429297477197631</v>
       </c>
       <c r="M13">
-        <v>0.01459579466541833</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2904,25 +2927,25 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.0146739047339065</v>
       </c>
       <c r="R13">
-        <v>0.004209263000315044</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>0.004209263000315044</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.004209263000315029</v>
       </c>
       <c r="U13">
         <v>1.365812759301049</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.0147444210679572</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>0.004209263000315044</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -2934,46 +2957,46 @@
         <v>0.01429297477197631</v>
       </c>
       <c r="AA13">
-        <v>0.0147444210679572</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.03541384249516179</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0.01428571428571429</v>
+        <v>0</v>
       </c>
       <c r="AE13">
+        <v>0.004209263000315044</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>0.01429297477197631</v>
       </c>
-      <c r="AF13">
+      <c r="AK13">
+        <v>0.004209263000315044</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>0.03534088021812985</v>
-      </c>
-      <c r="AG13">
-        <v>0.004209263000315044</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0.0146739047339065</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0.1</v>
-      </c>
-      <c r="AM13">
-        <v>0.01429297477197634</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2981,7 +3004,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2990,115 +3013,115 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0.2691452029632296</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.02</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>0.03199039880239428</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>0.03199039880239433</v>
       </c>
-      <c r="S14">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>0.03199039880239433</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0.2691452029632296</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0.02</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
       <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0.03199039880239433</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>0.2685906896577868</v>
-      </c>
-      <c r="AG14">
-        <v>0.03199039880239433</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0.7599999999999999</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3106,124 +3129,124 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>99.02129658186171</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>74.22700215849414</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>99.04289237248155</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>95.04828223364244</v>
+      </c>
+      <c r="L15">
+        <v>95.04828223364247</v>
+      </c>
+      <c r="M15">
         <v>100</v>
       </c>
-      <c r="F15">
+      <c r="N15">
+        <v>94.99999999999999</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>99.5729249800798</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>96.70327422839901</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>99.02129658186171</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>98.05040010191537</v>
+      </c>
+      <c r="W15">
+        <v>96.70327422839901</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>95.04828223364245</v>
       </c>
-      <c r="M15">
-        <v>99.04289237248155</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>96.70327422839901</v>
       </c>
-      <c r="S15">
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>95.04828223364245</v>
+      </c>
+      <c r="AK15">
         <v>96.70327422839901</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>95.04828223364247</v>
-      </c>
-      <c r="AA15">
-        <v>98.05040010191537</v>
-      </c>
-      <c r="AB15">
-        <v>74.22700215849414</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>94.99999999999999</v>
-      </c>
-      <c r="AE15">
-        <v>95.04828223364245</v>
-      </c>
-      <c r="AF15">
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
         <v>74.07407407407408</v>
-      </c>
-      <c r="AG15">
-        <v>96.70327422839901</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>99.5729249800798</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>85</v>
-      </c>
-      <c r="AM15">
-        <v>95.04828223364244</v>
-      </c>
-      <c r="AN15">
-        <v>100</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3231,124 +3254,124 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.4101164362272316</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>13.41781515999999</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
+        <v>2.988129348397645</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.4102058794984496</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>4.374015615806415</v>
+      </c>
+      <c r="L16">
+        <v>4.374015615806416</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>4.371793721428576</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4124011151862868</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>0.5583158761363949</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.4101164362272316</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1.353650916470885</v>
+      </c>
+      <c r="W16">
+        <v>0.5583158761363954</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>4.374015615806415</v>
       </c>
-      <c r="M16">
-        <v>0.4102058794984496</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
         <v>0.5583158761363954</v>
       </c>
-      <c r="S16">
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>4.374015615806415</v>
+      </c>
+      <c r="AK16">
         <v>0.5583158761363954</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>4.374015615806416</v>
-      </c>
-      <c r="AA16">
-        <v>1.353650916470885</v>
-      </c>
-      <c r="AB16">
-        <v>2.988129348397645</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>4.371793721428576</v>
-      </c>
-      <c r="AE16">
-        <v>4.374015615806415</v>
-      </c>
-      <c r="AF16">
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>2.981972978290253</v>
-      </c>
-      <c r="AG16">
-        <v>0.5583158761363954</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0.4124011151862868</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>13.41781515999999</v>
-      </c>
-      <c r="AM16">
-        <v>4.374015615806415</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3356,10 +3379,10 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3374,100 +3397,100 @@
         <v>0</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>100</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
         <v>100</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>100</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3481,7 +3504,7 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3520,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>100</v>
@@ -3532,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3550,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -3559,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3574,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>99.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -3589,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -3606,7 +3629,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3731,7 +3754,7 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3856,7 +3879,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3981,7 +4004,7 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4106,7 +4129,7 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4121,117 +4144,117 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>0.957305857086254</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>0.1137846627281</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>0.1137846627281003</v>
       </c>
-      <c r="S23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
         <v>0.1137846627281003</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0.957305857086254</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
       <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>100</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0.1137846627281003</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
         <v>0.9553335431483193</v>
       </c>
-      <c r="AG23">
-        <v>0.1137846627281003</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
       <c r="AO23">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4246,109 +4269,109 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>21.52300359056355</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>2.558208211429879</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>2.558208211429871</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
         <v>2.55820821142987</v>
       </c>
-      <c r="S24">
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>2.55820821142987</v>
       </c>
-      <c r="T24">
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
         <v>100</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>21.52300359056355</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
+      <c r="AN24">
         <v>21.4786602705539</v>
-      </c>
-      <c r="AG24">
-        <v>2.558208211429871</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -4356,7 +4379,7 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4499,13 +4522,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -4611,7 +4634,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4619,16 +4642,30 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>6.52054794520548</v>
+      </c>
+      <c r="D3">
+        <v>1.108493150684932</v>
       </c>
     </row>
   </sheetData>
@@ -4638,7 +4675,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E61"/>
+  <dimension ref="A2:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4646,11 +4683,11 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -4658,10 +4695,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -4670,10 +4707,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>4640</v>
@@ -4682,10 +4719,10 @@
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>65</v>
@@ -4694,10 +4731,10 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -4706,10 +4743,10 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7">
         <v>2.379487179487179</v>
@@ -4718,10 +4755,10 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8">
         <v>4539.973846153845</v>
@@ -4730,10 +4767,10 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>13920</v>
@@ -4741,11 +4778,11 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4753,11 +4790,11 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -4765,10 +4802,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -4777,10 +4814,10 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D15">
         <v>11530</v>
@@ -4789,266 +4826,238 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18">
         <v>1.356470588235294</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19">
         <v>11462.02729411765</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D20">
         <v>23060</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
       </c>
       <c r="D25">
-        <v>28541.6875</v>
-      </c>
-      <c r="E25">
-        <v>28541.6875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>18606700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D26">
-        <v>356.8350544710072</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30">
+        <v>28541.6875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31">
+        <v>356.6336095706205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30">
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35">
         <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31">
-        <v>28541.6875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34">
-        <v>0.02107960283604879</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>28541.6875</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D37">
-        <v>5708337.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38">
-        <v>24694268.025</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39">
-        <v>9133340</v>
+        <v>0.02105518422039891</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D40">
-        <v>81754809.675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41">
-        <v>71925.05250000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5057,10 +5066,10 @@
         <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42">
-        <v>791432.4526874999</v>
+        <v>5708337.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5069,10 +5078,10 @@
         <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43">
-        <v>2113569.04275</v>
+        <v>24694268.025</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5081,110 +5090,116 @@
         <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D44">
-        <v>6336.254625</v>
+        <v>9133340</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D45">
-        <v>553</v>
+        <v>81754809.675</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46">
+        <v>71925.05250000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46">
-        <v>15783553.1875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="1"/>
       <c r="C47" t="s">
         <v>123</v>
       </c>
       <c r="D47">
-        <v>180.1775478025114</v>
+        <v>791432.4526874999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48">
+        <v>2113569.04275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49">
+        <v>6336.254625</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
+        <v>125</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50">
+        <v>15783553.1875</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51">
+        <v>180.1775478025114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52">
-        <v>142.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D53">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54">
-        <v>130.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D55">
         <v>19</v>
@@ -5193,79 +5208,120 @@
     <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D56">
-        <v>357</v>
+        <v>142.8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D58">
-        <v>259.1573099999999</v>
+        <v>130.2</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D59">
-        <v>9624.423774272149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
         <v>121</v>
       </c>
       <c r="D60">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62">
+        <v>259.1573099999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63">
+        <v>9624.423774272149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64">
         <v>1463</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61">
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A30:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A35:A49"/>
+    <mergeCell ref="A55:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exposan/bwaise/results/sysC.xlsx
+++ b/exposan/bwaise/results/sysC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="157">
   <si>
     <t>Unit operation</t>
   </si>
@@ -123,126 +123,126 @@
     <t>Cumulative NPV [MM$]</t>
   </si>
   <si>
+    <t>C2_CH4</t>
+  </si>
+  <si>
+    <t>C2_N2O</t>
+  </si>
+  <si>
+    <t>C6_CH4</t>
+  </si>
+  <si>
+    <t>C6_N2O</t>
+  </si>
+  <si>
+    <t>C7_CH4</t>
+  </si>
+  <si>
     <t>C7_N2O</t>
   </si>
   <si>
+    <t>C8_CH4</t>
+  </si>
+  <si>
+    <t>C8_N2O</t>
+  </si>
+  <si>
+    <t>C_CH4</t>
+  </si>
+  <si>
+    <t>C_N2O</t>
+  </si>
+  <si>
+    <t>C_liq_K</t>
+  </si>
+  <si>
+    <t>C_liq_N</t>
+  </si>
+  <si>
+    <t>C_liq_P</t>
+  </si>
+  <si>
+    <t>C_liq_non_fertilizers</t>
+  </si>
+  <si>
+    <t>C_sol_K</t>
+  </si>
+  <si>
+    <t>C_sol_N</t>
+  </si>
+  <si>
+    <t>C_sol_P</t>
+  </si>
+  <si>
+    <t>C_sol_non_fertilizers</t>
+  </si>
+  <si>
+    <t>HAP</t>
+  </si>
+  <si>
+    <t>anaerobic_treated</t>
+  </si>
+  <si>
+    <t>cleaning_water</t>
+  </si>
+  <si>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>dried_sludge</t>
+  </si>
+  <si>
+    <t>evaporated</t>
+  </si>
+  <si>
     <t>facultative_treated</t>
   </si>
   <si>
     <t>feces</t>
   </si>
   <si>
-    <t>C6_N2O</t>
-  </si>
-  <si>
-    <t>C_sol_non_fertilizers</t>
-  </si>
-  <si>
-    <t>HAP</t>
-  </si>
-  <si>
-    <t>C_liq_P</t>
+    <t>flushing_water</t>
+  </si>
+  <si>
+    <t>liq_waste</t>
   </si>
   <si>
     <t>liquid_fertilizer</t>
   </si>
   <si>
-    <t>C_liq_N</t>
-  </si>
-  <si>
     <t>loss_l</t>
   </si>
   <si>
-    <t>liq_waste</t>
-  </si>
-  <si>
-    <t>evaporated</t>
+    <t>loss_s</t>
+  </si>
+  <si>
+    <t>reuse_loss</t>
+  </si>
+  <si>
+    <t>sol_waste</t>
+  </si>
+  <si>
+    <t>struvite</t>
+  </si>
+  <si>
+    <t>toilet_paper</t>
+  </si>
+  <si>
+    <t>transported_l</t>
+  </si>
+  <si>
+    <t>transported_s</t>
   </si>
   <si>
     <t>urine</t>
   </si>
   <si>
-    <t>flushing_water</t>
-  </si>
-  <si>
-    <t>C7_CH4</t>
-  </si>
-  <si>
-    <t>C_liq_non_fertilizers</t>
-  </si>
-  <si>
-    <t>C2_CH4</t>
-  </si>
-  <si>
-    <t>C_sol_K</t>
-  </si>
-  <si>
-    <t>loss_s</t>
-  </si>
-  <si>
-    <t>reuse_loss</t>
-  </si>
-  <si>
-    <t>anaerobic_treated</t>
-  </si>
-  <si>
-    <t>sol_waste</t>
-  </si>
-  <si>
-    <t>C_CH4</t>
-  </si>
-  <si>
-    <t>C_sol_P</t>
-  </si>
-  <si>
     <t>ws7</t>
   </si>
   <si>
-    <t>C8_CH4</t>
-  </si>
-  <si>
-    <t>cleaning_water</t>
-  </si>
-  <si>
-    <t>C_sol_N</t>
-  </si>
-  <si>
-    <t>C2_N2O</t>
-  </si>
-  <si>
-    <t>transported_s</t>
-  </si>
-  <si>
-    <t>C6_CH4</t>
-  </si>
-  <si>
-    <t>struvite</t>
-  </si>
-  <si>
-    <t>toilet_paper</t>
-  </si>
-  <si>
-    <t>C_N2O</t>
-  </si>
-  <si>
-    <t>transported_l</t>
-  </si>
-  <si>
     <t>ws8</t>
   </si>
   <si>
-    <t>C8_N2O</t>
-  </si>
-  <si>
-    <t>desiccant</t>
-  </si>
-  <si>
-    <t>dried_sludge</t>
-  </si>
-  <si>
-    <t>C_liq_K</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -312,34 +312,34 @@
     <t>Struvite</t>
   </si>
   <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
     <t>C11</t>
   </si>
   <si>
-    <t>gas</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>solid</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>C1</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C10</t>
   </si>
   <si>
     <t>Unit Operation</t>
@@ -1752,124 +1752,124 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
         <v>99</v>
       </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
         <v>101</v>
       </c>
       <c r="O3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" t="s">
         <v>103</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AA3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="s">
         <v>105</v>
       </c>
-      <c r="R3" t="s">
+      <c r="AE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH3" t="s">
         <v>9</v>
       </c>
-      <c r="S3" t="s">
-        <v>102</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="AI3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL3" t="s">
         <v>8</v>
       </c>
-      <c r="U3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="AM3" t="s">
         <v>106</v>
       </c>
-      <c r="Y3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AN3" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AO3" t="s">
         <v>6</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1883,118 +1883,118 @@
         <v>99</v>
       </c>
       <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" t="s">
-        <v>103</v>
-      </c>
-      <c r="U4" t="s">
-        <v>103</v>
-      </c>
-      <c r="V4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" t="s">
-        <v>8</v>
       </c>
       <c r="X4" t="s">
         <v>103</v>
       </c>
       <c r="Y4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Z4" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="AA4" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="AB4" t="s">
         <v>9</v>
       </c>
       <c r="AC4" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>6</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>97</v>
       </c>
       <c r="AM4" t="s">
         <v>9</v>
       </c>
       <c r="AN4" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -2005,121 +2005,121 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
         <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" t="s">
         <v>104</v>
       </c>
-      <c r="H5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="U5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" t="s">
+        <v>102</v>
+      </c>
+      <c r="W5" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" t="s">
         <v>98</v>
       </c>
-      <c r="N5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" t="s">
-        <v>100</v>
-      </c>
-      <c r="W5" t="s">
-        <v>100</v>
-      </c>
-      <c r="X5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>100</v>
-      </c>
       <c r="Z5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AA5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AB5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AD5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AE5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI5" t="s">
         <v>104</v>
       </c>
-      <c r="AH5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>98</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AM5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AN5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AO5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -2252,124 +2252,124 @@
         <v>78</v>
       </c>
       <c r="B7">
+        <v>0.1687239654291444</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>13.25279833093614</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.9939598748202108</v>
+      </c>
+      <c r="G7">
         <v>0.07050323077830421</v>
       </c>
-      <c r="C7">
+      <c r="H7">
+        <v>10.37466886795711</v>
+      </c>
+      <c r="I7">
+        <v>0.04941379251340255</v>
+      </c>
+      <c r="J7">
+        <v>24.79015103914261</v>
+      </c>
+      <c r="K7">
+        <v>0.1199170232917068</v>
+      </c>
+      <c r="L7">
+        <v>30.41695816694304</v>
+      </c>
+      <c r="M7">
+        <v>99.26410856070689</v>
+      </c>
+      <c r="N7">
+        <v>3.610942069701285</v>
+      </c>
+      <c r="O7">
+        <v>24907.19607091476</v>
+      </c>
+      <c r="P7">
+        <v>10.905142199952</v>
+      </c>
+      <c r="Q7">
+        <v>8.834627801783148</v>
+      </c>
+      <c r="R7">
+        <v>7.437287781173251</v>
+      </c>
+      <c r="S7">
+        <v>13163.80440493071</v>
+      </c>
+      <c r="T7">
+        <v>13.35498580967109</v>
+      </c>
+      <c r="U7">
+        <v>25293.95457086856</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.0063308</v>
+      </c>
+      <c r="X7">
+        <v>13190.98146271362</v>
+      </c>
+      <c r="Y7">
+        <v>97328.93178550167</v>
+      </c>
+      <c r="Z7">
         <v>25045.94921944927</v>
       </c>
-      <c r="D7">
+      <c r="AA7">
         <v>0.01041666666666667</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>13163.80440493071</v>
-      </c>
-      <c r="G7">
-        <v>13.35498580967109</v>
-      </c>
-      <c r="H7">
-        <v>3.610942069701285</v>
-      </c>
-      <c r="I7">
+      <c r="AB7">
+        <v>0.4166666669999999</v>
+      </c>
+      <c r="AC7">
+        <v>26625.37641075773</v>
+      </c>
+      <c r="AD7">
         <v>25040.48807971211</v>
       </c>
-      <c r="J7">
-        <v>99.26410856070689</v>
-      </c>
-      <c r="K7">
+      <c r="AE7">
         <v>532.5075282151539</v>
       </c>
-      <c r="L7">
-        <v>26625.37641075773</v>
-      </c>
-      <c r="M7">
-        <v>97328.93178550167</v>
-      </c>
-      <c r="N7">
+      <c r="AF7">
+        <v>2260.228413530177</v>
+      </c>
+      <c r="AG7">
+        <v>5.46113973715579</v>
+      </c>
+      <c r="AH7">
+        <v>113011.4206765087</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0.000281583</v>
+      </c>
+      <c r="AK7">
+        <v>26092.86888254258</v>
+      </c>
+      <c r="AL7">
+        <v>110751.1922629785</v>
+      </c>
+      <c r="AM7">
         <v>0.05833333333333333</v>
       </c>
-      <c r="O7">
-        <v>0.4166666669999999</v>
-      </c>
-      <c r="P7">
-        <v>0.9939598748202108</v>
-      </c>
-      <c r="Q7">
-        <v>24907.19607091476</v>
-      </c>
-      <c r="R7">
-        <v>0.1687239654291444</v>
-      </c>
-      <c r="S7">
-        <v>10.905142199952</v>
-      </c>
-      <c r="T7">
-        <v>2260.228413530177</v>
-      </c>
-      <c r="U7">
-        <v>5.46113973715579</v>
-      </c>
-      <c r="V7">
-        <v>25293.95457086856</v>
-      </c>
-      <c r="W7">
-        <v>113011.4206765087</v>
-      </c>
-      <c r="X7">
-        <v>24.79015103914261</v>
-      </c>
-      <c r="Y7">
-        <v>7.437287781173251</v>
-      </c>
-      <c r="Z7">
+      <c r="AN7">
         <v>26092.86888254258</v>
       </c>
-      <c r="AA7">
-        <v>10.37466886795711</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>8.834627801783148</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
+      <c r="AO7">
         <v>110751.1922629785</v>
-      </c>
-      <c r="AF7">
-        <v>13.25279833093614</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0.000281583</v>
-      </c>
-      <c r="AI7">
-        <v>0.1199170232917068</v>
-      </c>
-      <c r="AJ7">
-        <v>26092.86888254258</v>
-      </c>
-      <c r="AK7">
-        <v>110751.1922629785</v>
-      </c>
-      <c r="AL7">
-        <v>0.04941379251340255</v>
-      </c>
-      <c r="AM7">
-        <v>0.0063308</v>
-      </c>
-      <c r="AN7">
-        <v>13190.98146271362</v>
-      </c>
-      <c r="AO7">
-        <v>30.41695816694304</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -2385,121 +2385,121 @@
         <v>0</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>83.35777680680707</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.3554344402111291</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>0.3477581117149113</v>
       </c>
-      <c r="D9">
+      <c r="AA9">
         <v>0.06574463999999999</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0.344551709667977</v>
+      </c>
+      <c r="AD9">
         <v>0.3304422573549614</v>
       </c>
-      <c r="J9">
-        <v>83.35777680680707</v>
-      </c>
-      <c r="K9">
+      <c r="AE9">
         <v>0.344551709667977</v>
       </c>
-      <c r="L9">
-        <v>0.344551709667977</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="AF9">
+        <v>0.00258606504612227</v>
+      </c>
+      <c r="AG9">
+        <v>79.74463597226557</v>
+      </c>
+      <c r="AH9">
+        <v>0.002586065046122275</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0.3445517096679769</v>
+      </c>
+      <c r="AL9">
+        <v>0.002586065046122275</v>
+      </c>
+      <c r="AM9">
         <v>0.3659002285714285</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0.00258606504612227</v>
-      </c>
-      <c r="U9">
-        <v>79.74463597226557</v>
-      </c>
-      <c r="V9">
-        <v>0.3554344402111291</v>
-      </c>
-      <c r="W9">
+      <c r="AN9">
+        <v>0.3445517096679769</v>
+      </c>
+      <c r="AO9">
         <v>0.002586065046122275</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0.3445517096679769</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0.002586065046122275</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0.3445517096679769</v>
-      </c>
-      <c r="AK9">
-        <v>0.002586065046122275</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -2510,121 +2510,121 @@
         <v>0</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>16.64222319319292</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0.06664395753958674</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.06697475716083455</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>0.06730386697103855</v>
       </c>
-      <c r="D10">
+      <c r="AA10">
         <v>0.26297856</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0.06460344556274571</v>
+      </c>
+      <c r="AD10">
         <v>0.06597217452318961</v>
       </c>
-      <c r="J10">
-        <v>16.64222319319292</v>
-      </c>
-      <c r="K10">
+      <c r="AE10">
         <v>0.06460344556274587</v>
       </c>
-      <c r="L10">
-        <v>0.06460344556274571</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
+      <c r="AF10">
+        <v>0.01106945922484128</v>
+      </c>
+      <c r="AG10">
+        <v>6.173397186526233</v>
+      </c>
+      <c r="AH10">
+        <v>0.0110694592248413</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0.06460344556274569</v>
+      </c>
+      <c r="AL10">
+        <v>0.0110694592248413</v>
+      </c>
+      <c r="AM10">
         <v>0.06457062857142859</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0.01106945922484128</v>
-      </c>
-      <c r="U10">
-        <v>6.173397186526233</v>
-      </c>
-      <c r="V10">
-        <v>0.06664395753958674</v>
-      </c>
-      <c r="W10">
+      <c r="AN10">
+        <v>0.06460344556274569</v>
+      </c>
+      <c r="AO10">
         <v>0.0110694592248413</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0.06460344556274569</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>100</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0.0110694592248413</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0.06460344556274569</v>
-      </c>
-      <c r="AK10">
-        <v>0.0110694592248413</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0.06697475716083455</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2635,121 +2635,121 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0.03641813654205105</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0.05638161043737278</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>0.01471149978272747</v>
       </c>
-      <c r="D11">
+      <c r="AA11">
         <v>0.15953652</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0.03530308205651655</v>
+      </c>
+      <c r="AD11">
         <v>0.01442041408380887</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="AE11">
         <v>0.03530308205651645</v>
       </c>
-      <c r="L11">
+      <c r="AF11">
+        <v>0.006715311708350196</v>
+      </c>
+      <c r="AG11">
+        <v>1.349401385916672</v>
+      </c>
+      <c r="AH11">
+        <v>0.006715311708350213</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <v>0.03530308205651655</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="AL11">
+        <v>0.006715311708350213</v>
+      </c>
+      <c r="AM11">
         <v>0.04455919285714285</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0.006715311708350196</v>
-      </c>
-      <c r="U11">
-        <v>1.349401385916672</v>
-      </c>
-      <c r="V11">
-        <v>0.03641813654205105</v>
-      </c>
-      <c r="W11">
+      <c r="AN11">
+        <v>0.03530308205651655</v>
+      </c>
+      <c r="AO11">
         <v>0.006715311708350213</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>100</v>
-      </c>
-      <c r="Z11">
-        <v>0.03530308205651655</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0.006715311708350213</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0.03530308205651655</v>
-      </c>
-      <c r="AK11">
-        <v>0.006715311708350213</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0.05638161043737278</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2760,121 +2760,121 @@
         <v>0</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0.1227080262530186</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0.08267119645931652</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>0.1239230829037451</v>
       </c>
-      <c r="D12">
+      <c r="AA12">
         <v>0.23392512</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0.1189509384919103</v>
+      </c>
+      <c r="AD12">
         <v>0.121471107392619</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+      <c r="AE12">
         <v>0.1189509384919097</v>
       </c>
-      <c r="L12">
-        <v>0.1189509384919103</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="AF12">
+        <v>0.009846523524602566</v>
+      </c>
+      <c r="AG12">
+        <v>11.36675269599046</v>
+      </c>
+      <c r="AH12">
+        <v>0.009846523524602569</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0.1189509384919102</v>
+      </c>
+      <c r="AL12">
+        <v>0.009846523524602569</v>
+      </c>
+      <c r="AM12">
         <v>0.1188905142857143</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>100</v>
-      </c>
-      <c r="T12">
-        <v>0.009846523524602566</v>
-      </c>
-      <c r="U12">
-        <v>11.36675269599046</v>
-      </c>
-      <c r="V12">
-        <v>0.1227080262530186</v>
-      </c>
-      <c r="W12">
+      <c r="AN12">
+        <v>0.1189509384919102</v>
+      </c>
+      <c r="AO12">
         <v>0.009846523524602569</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0.1189509384919102</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0.009846523524602569</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0.1189509384919102</v>
-      </c>
-      <c r="AK12">
-        <v>0.009846523524602569</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0.08267119645931652</v>
-      </c>
-      <c r="AO12">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2885,121 +2885,121 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.0146739047339065</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.03541384249516179</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0.0147444210679572</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0.03534088021812985</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>0.01489042053862582</v>
       </c>
-      <c r="D13">
+      <c r="AA13">
         <v>0.1</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.03541384249516179</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0.01429297477197631</v>
+      </c>
+      <c r="AD13">
         <v>0.01459579466541833</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
+      <c r="AE13">
         <v>0.01429297477197634</v>
       </c>
-      <c r="L13">
+      <c r="AF13">
+        <v>0.004209263000315029</v>
+      </c>
+      <c r="AG13">
+        <v>1.365812759301049</v>
+      </c>
+      <c r="AH13">
+        <v>0.004209263000315044</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <v>0.01429297477197631</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="AL13">
+        <v>0.004209263000315044</v>
+      </c>
+      <c r="AM13">
         <v>0.01428571428571429</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0.0146739047339065</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0.004209263000315029</v>
-      </c>
-      <c r="U13">
-        <v>1.365812759301049</v>
-      </c>
-      <c r="V13">
-        <v>0.0147444210679572</v>
-      </c>
-      <c r="W13">
+      <c r="AN13">
+        <v>0.01429297477197631</v>
+      </c>
+      <c r="AO13">
         <v>0.004209263000315044</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0.01429297477197631</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0.004209263000315044</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0.01429297477197631</v>
-      </c>
-      <c r="AK13">
-        <v>0.004209263000315044</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0.03534088021812985</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -3013,118 +3013,118 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.2691452029632296</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.2685906896577868</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <v>0.7599999999999999</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.2691452029632296</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0.03199039880239428</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0.03199039880239433</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0.03199039880239433</v>
+      </c>
+      <c r="AM14">
         <v>0.02</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0.03199039880239428</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
         <v>0.03199039880239433</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0.03199039880239433</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0.03199039880239433</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0.2685906896577868</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -3135,121 +3135,121 @@
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>99.5729249800798</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>74.22700215849414</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>98.05040010191537</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>74.07407407407408</v>
+      </c>
+      <c r="Y15">
+        <v>100</v>
+      </c>
+      <c r="Z15">
         <v>99.02129658186171</v>
       </c>
-      <c r="D15">
+      <c r="AA15">
         <v>85</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>74.22700215849414</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="AB15">
+        <v>100</v>
+      </c>
+      <c r="AC15">
+        <v>95.04828223364247</v>
+      </c>
+      <c r="AD15">
         <v>99.04289237248155</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="AE15">
         <v>95.04828223364244</v>
       </c>
-      <c r="L15">
-        <v>95.04828223364247</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15">
+      <c r="AF15">
+        <v>96.70327422839901</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>96.70327422839901</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>95.04828223364245</v>
+      </c>
+      <c r="AL15">
+        <v>96.70327422839901</v>
+      </c>
+      <c r="AM15">
         <v>94.99999999999999</v>
       </c>
-      <c r="O15">
-        <v>100</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>99.5729249800798</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="AN15">
+        <v>95.04828223364245</v>
+      </c>
+      <c r="AO15">
         <v>96.70327422839901</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>98.05040010191537</v>
-      </c>
-      <c r="W15">
-        <v>96.70327422839901</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>95.04828223364245</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>96.70327422839901</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>95.04828223364245</v>
-      </c>
-      <c r="AK15">
-        <v>96.70327422839901</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>74.07407407407408</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -3260,121 +3260,121 @@
         <v>0</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.4124011151862868</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>2.988129348397645</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>1.353650916470885</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>2.981972978290253</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>0.4101164362272316</v>
       </c>
-      <c r="D16">
+      <c r="AA16">
         <v>13.41781515999999</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>2.988129348397645</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>4.374015615806416</v>
+      </c>
+      <c r="AD16">
         <v>0.4102058794984496</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="AE16">
         <v>4.374015615806415</v>
       </c>
-      <c r="L16">
-        <v>4.374015615806416</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="AF16">
+        <v>0.5583158761363949</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0.5583158761363954</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>4.374015615806415</v>
+      </c>
+      <c r="AL16">
+        <v>0.5583158761363954</v>
+      </c>
+      <c r="AM16">
         <v>4.371793721428576</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0.4124011151862868</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0.5583158761363949</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>1.353650916470885</v>
-      </c>
-      <c r="W16">
+      <c r="AN16">
+        <v>4.374015615806415</v>
+      </c>
+      <c r="AO16">
         <v>0.5583158761363954</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>4.374015615806415</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0.5583158761363954</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>4.374015615806415</v>
-      </c>
-      <c r="AK16">
-        <v>0.5583158761363954</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>2.981972978290253</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -3382,34 +3382,34 @@
         <v>88</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>100</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3507,31 +3507,31 @@
         <v>89</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3549,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>99.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -4144,112 +4144,112 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>0.957305857086254</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0.9553335431483193</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>0.1137846627281</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
         <v>0.1137846627281003</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>100</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
         <v>0.1137846627281003</v>
       </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>100</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>0.1137846627281003</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0.9553335431483193</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -4269,112 +4269,112 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>21.52300359056355</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>100</v>
+      </c>
+      <c r="X24">
+        <v>21.4786602705539</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>2.558208211429879</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
         <v>2.558208211429871</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>2.55820821142987</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>2.55820821142987</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>100</v>
-      </c>
-      <c r="AN24">
-        <v>21.4786602705539</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -4504,7 +4504,7 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4522,46 +4522,46 @@
         <v>0</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>100</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -4675,7 +4675,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D65"/>
+  <dimension ref="A2:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4835,7 +4835,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>117</v>
@@ -4847,7 +4847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>118</v>
@@ -4859,7 +4859,7 @@
         <v>1.356470588235294</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>119</v>
@@ -4871,7 +4871,7 @@
         <v>11462.02729411765</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>120</v>
@@ -4883,7 +4883,7 @@
         <v>23060</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>125</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>18606700</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -4944,8 +4944,11 @@
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>112</v>
       </c>
@@ -4955,8 +4958,11 @@
       <c r="D30">
         <v>28541.6875</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>28541.6875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>

--- a/exposan/bwaise/results/sysC.xlsx
+++ b/exposan/bwaise/results/sysC.xlsx
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.72894656387081</v>
+        <v>7.177693206126192</v>
       </c>
       <c r="K3">
         <v>0.5737630384135953</v>
@@ -1205,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-17.06955070595096</v>
+        <v>-11.51829734820635</v>
       </c>
       <c r="O3">
-        <v>-12.15518352545721</v>
+        <v>-6.603930167712597</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-11.5763652623402</v>
+        <v>-6.289457302583426</v>
       </c>
       <c r="R3">
-        <v>-45.9666184498402</v>
+        <v>-40.67971049008342</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.72894656387081</v>
+        <v>7.177693206126192</v>
       </c>
       <c r="K4">
         <v>0.5737630384135953</v>
@@ -1261,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-20.57735653107596</v>
+        <v>-15.02610317333135</v>
       </c>
       <c r="O4">
-        <v>-12.15518352545721</v>
+        <v>-6.603930167712597</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-11.02510977365733</v>
+        <v>-5.989959335793738</v>
       </c>
       <c r="R4">
-        <v>-56.99172822349754</v>
+        <v>-46.66966982587716</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.72894656387081</v>
+        <v>7.177693206126192</v>
       </c>
       <c r="K5">
         <v>0.5737630384135953</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-18.17003880795096</v>
+        <v>-12.61878545020635</v>
       </c>
       <c r="O5">
-        <v>-12.15518352545721</v>
+        <v>-6.603930167712597</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-10.50010454634032</v>
+        <v>-5.704723176946417</v>
       </c>
       <c r="R5">
-        <v>-67.49183276983786</v>
+        <v>-52.37439300282358</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.72894656387081</v>
+        <v>7.177693206126192</v>
       </c>
       <c r="K6">
         <v>0.5737630384135953</v>
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-16.45052614857596</v>
+        <v>-10.89927279083135</v>
       </c>
       <c r="O6">
-        <v>-12.15518352545721</v>
+        <v>-6.603930167712596</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-10.00009956794316</v>
+        <v>-5.43306969232992</v>
       </c>
       <c r="R6">
-        <v>-77.49193233778101</v>
+        <v>-57.8074626951535</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.72894656387081</v>
+        <v>7.177693206126192</v>
       </c>
       <c r="K7">
         <v>0.5737630384135953</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-15.22623313510096</v>
+        <v>-9.674979777356347</v>
       </c>
       <c r="O7">
-        <v>-12.15518352545721</v>
+        <v>-6.603930167712597</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-9.523904350422056</v>
+        <v>-5.174352087933258</v>
       </c>
       <c r="R7">
-        <v>-87.01583668820307</v>
+        <v>-62.98181478308676</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.72894656387081</v>
+        <v>7.177693206126192</v>
       </c>
       <c r="K8">
         <v>0.5737630384135953</v>
@@ -1485,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-15.22279410978221</v>
+        <v>-9.671540752037599</v>
       </c>
       <c r="O8">
-        <v>-12.15518352545721</v>
+        <v>-6.603930167712597</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-9.070385095640052</v>
+        <v>-4.927954369460244</v>
       </c>
       <c r="R8">
-        <v>-96.08622178384311</v>
+        <v>-67.909769152547</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.72894656387081</v>
+        <v>7.177693206126192</v>
       </c>
       <c r="K9">
         <v>0.5737630384135953</v>
@@ -1541,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-15.22623313510096</v>
+        <v>-9.674979777356347</v>
       </c>
       <c r="O9">
-        <v>-12.15518352545721</v>
+        <v>-6.603930167712597</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-8.63846199584767</v>
+        <v>-4.693289875676424</v>
       </c>
       <c r="R9">
-        <v>-104.7246837796908</v>
+        <v>-72.60305902822343</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.72894656387081</v>
+        <v>7.177693206126192</v>
       </c>
       <c r="K10">
         <v>0.5737630384135953</v>
@@ -1597,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-13.68898881761971</v>
+        <v>-8.137735459875097</v>
       </c>
       <c r="O10">
-        <v>-12.15518352545721</v>
+        <v>-6.603930167712597</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-8.227106662712066</v>
+        <v>-4.469799881596594</v>
       </c>
       <c r="R10">
-        <v>-112.9517904424029</v>
+        <v>-77.07285890982001</v>
       </c>
     </row>
   </sheetData>
@@ -2270,13 +2270,13 @@
         <v>0.07050323077830421</v>
       </c>
       <c r="H7">
-        <v>10.37466886795711</v>
+        <v>10.36615722763462</v>
       </c>
       <c r="I7">
         <v>0.04941379251340255</v>
       </c>
       <c r="J7">
-        <v>24.79015103914261</v>
+        <v>24.78163939882012</v>
       </c>
       <c r="K7">
         <v>0.1199170232917068</v>
@@ -2303,7 +2303,7 @@
         <v>7.437287781173251</v>
       </c>
       <c r="S7">
-        <v>13163.80440493071</v>
+        <v>13163.8044049307</v>
       </c>
       <c r="T7">
         <v>13.35498580967109</v>
@@ -2318,10 +2318,10 @@
         <v>0.0063308</v>
       </c>
       <c r="X7">
-        <v>13190.98146271362</v>
+        <v>13190.98146271361</v>
       </c>
       <c r="Y7">
-        <v>97328.93178550167</v>
+        <v>-2278.753222729129</v>
       </c>
       <c r="Z7">
         <v>25045.94921944927</v>
@@ -2330,7 +2330,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="AB7">
-        <v>0.4166666669999999</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>26625.37641075773</v>
@@ -2342,13 +2342,13 @@
         <v>532.5075282151539</v>
       </c>
       <c r="AF7">
-        <v>2260.228413530177</v>
+        <v>227.4185154030153</v>
       </c>
       <c r="AG7">
         <v>5.46113973715579</v>
       </c>
       <c r="AH7">
-        <v>113011.4206765087</v>
+        <v>11370.92577015072</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>26092.86888254258</v>
       </c>
       <c r="AL7">
-        <v>110751.1922629785</v>
+        <v>11143.50725474771</v>
       </c>
       <c r="AM7">
         <v>0.05833333333333333</v>
@@ -2369,7 +2369,7 @@
         <v>26092.86888254258</v>
       </c>
       <c r="AO7">
-        <v>110751.1922629785</v>
+        <v>11143.50725474771</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -2472,13 +2472,13 @@
         <v>0.344551709667977</v>
       </c>
       <c r="AF9">
-        <v>0.00258606504612227</v>
+        <v>0.02570194289644581</v>
       </c>
       <c r="AG9">
         <v>79.74463597226557</v>
       </c>
       <c r="AH9">
-        <v>0.002586065046122275</v>
+        <v>0.02570194289644593</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0.3445517096679769</v>
       </c>
       <c r="AL9">
-        <v>0.002586065046122275</v>
+        <v>0.02570194289644592</v>
       </c>
       <c r="AM9">
         <v>0.3659002285714285</v>
@@ -2499,7 +2499,7 @@
         <v>0.3445517096679769</v>
       </c>
       <c r="AO9">
-        <v>0.002586065046122275</v>
+        <v>0.02570194289644592</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.06697475716083455</v>
+        <v>0.06697475716083458</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0.06460344556274587</v>
       </c>
       <c r="AF10">
-        <v>0.01106945922484128</v>
+        <v>0.1100152563130674</v>
       </c>
       <c r="AG10">
         <v>6.173397186526233</v>
       </c>
       <c r="AH10">
-        <v>0.0110694592248413</v>
+        <v>0.1100152563130678</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0.06460344556274569</v>
       </c>
       <c r="AL10">
-        <v>0.0110694592248413</v>
+        <v>0.1100152563130678</v>
       </c>
       <c r="AM10">
         <v>0.06457062857142859</v>
@@ -2624,7 +2624,7 @@
         <v>0.06460344556274569</v>
       </c>
       <c r="AO10">
-        <v>0.0110694592248413</v>
+        <v>0.1100152563130678</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.05638161043737278</v>
+        <v>0.0563816104373728</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0.03530308205651645</v>
       </c>
       <c r="AF11">
-        <v>0.006715311708350196</v>
+        <v>0.06674099644889221</v>
       </c>
       <c r="AG11">
         <v>1.349401385916672</v>
       </c>
       <c r="AH11">
-        <v>0.006715311708350213</v>
+        <v>0.06674099644889255</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>0.03530308205651655</v>
       </c>
       <c r="AL11">
-        <v>0.006715311708350213</v>
+        <v>0.06674099644889253</v>
       </c>
       <c r="AM11">
         <v>0.04455919285714285</v>
@@ -2749,7 +2749,7 @@
         <v>0.03530308205651655</v>
       </c>
       <c r="AO11">
-        <v>0.006715311708350213</v>
+        <v>0.06674099644889253</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0.08267119645931652</v>
+        <v>0.08267119645931655</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2847,13 +2847,13 @@
         <v>0.1189509384919097</v>
       </c>
       <c r="AF12">
-        <v>0.009846523524602566</v>
+        <v>0.09786095123064434</v>
       </c>
       <c r="AG12">
         <v>11.36675269599046</v>
       </c>
       <c r="AH12">
-        <v>0.009846523524602569</v>
+        <v>0.09786095123064462</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0.1189509384919102</v>
       </c>
       <c r="AL12">
-        <v>0.009846523524602569</v>
+        <v>0.0978609512306446</v>
       </c>
       <c r="AM12">
         <v>0.1188905142857143</v>
@@ -2874,7 +2874,7 @@
         <v>0.1189509384919102</v>
       </c>
       <c r="AO12">
-        <v>0.009846523524602569</v>
+        <v>0.0978609512306446</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03541384249516179</v>
+        <v>0.03541384249516182</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0.03534088021812985</v>
+        <v>0.03534088021812987</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2972,13 +2972,13 @@
         <v>0.01429297477197634</v>
       </c>
       <c r="AF13">
-        <v>0.004209263000315029</v>
+        <v>0.04183430630735339</v>
       </c>
       <c r="AG13">
         <v>1.365812759301049</v>
       </c>
       <c r="AH13">
-        <v>0.004209263000315044</v>
+        <v>0.04183430630735366</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0.01429297477197631</v>
       </c>
       <c r="AL13">
-        <v>0.004209263000315044</v>
+        <v>0.04183430630735365</v>
       </c>
       <c r="AM13">
         <v>0.01428571428571429</v>
@@ -2999,7 +2999,7 @@
         <v>0.01429297477197631</v>
       </c>
       <c r="AO13">
-        <v>0.004209263000315044</v>
+        <v>0.04183430630735365</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.2691452029632296</v>
+        <v>0.2691452029632298</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0.2685906896577868</v>
+        <v>0.2685906896577869</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -3097,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.03199039880239428</v>
+        <v>0.3179407279358864</v>
       </c>
       <c r="AG14">
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.03199039880239433</v>
+        <v>0.3179407279358878</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>0.03199039880239433</v>
+        <v>0.3179407279358877</v>
       </c>
       <c r="AM14">
         <v>0.02</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0.03199039880239433</v>
+        <v>0.3179407279358877</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>74.07407407407408</v>
+        <v>74.07407407407406</v>
       </c>
       <c r="Y15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>99.02129658186171</v>
@@ -3210,7 +3210,7 @@
         <v>85</v>
       </c>
       <c r="AB15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>95.04828223364247</v>
@@ -3222,13 +3222,13 @@
         <v>95.04828223364244</v>
       </c>
       <c r="AF15">
-        <v>96.70327422839901</v>
+        <v>67.23506330438836</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>96.70327422839901</v>
+        <v>67.23506330438838</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>95.04828223364245</v>
       </c>
       <c r="AL15">
-        <v>96.70327422839901</v>
+        <v>67.23506330438835</v>
       </c>
       <c r="AM15">
         <v>94.99999999999999</v>
@@ -3249,7 +3249,7 @@
         <v>95.04828223364245</v>
       </c>
       <c r="AO15">
-        <v>96.70327422839901</v>
+        <v>67.23506330438835</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>2.988129348397645</v>
+        <v>2.988129348397647</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>2.981972978290253</v>
+        <v>2.981972978290254</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>4.374015615806415</v>
       </c>
       <c r="AF16">
-        <v>0.5583158761363949</v>
+        <v>5.548894753499665</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0.5583158761363954</v>
+        <v>5.548894753499686</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>4.374015615806415</v>
       </c>
       <c r="AL16">
-        <v>0.5583158761363954</v>
+        <v>5.548894753499684</v>
       </c>
       <c r="AM16">
         <v>4.371793721428576</v>
@@ -3374,7 +3374,7 @@
         <v>4.374015615806415</v>
       </c>
       <c r="AO16">
-        <v>0.5583158761363954</v>
+        <v>5.548894753499684</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.957305857086254</v>
+        <v>0.9573058570862547</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0.9553335431483193</v>
+        <v>0.9553335431483198</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -4222,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.1137846627281</v>
+        <v>1.130863629402576</v>
       </c>
       <c r="AG23">
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0.1137846627281003</v>
+        <v>1.130863629402582</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0.1137846627281003</v>
+        <v>1.130863629402582</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0.1137846627281003</v>
+        <v>1.130863629402582</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>21.52300359056355</v>
+        <v>21.52300359056356</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>100</v>
       </c>
       <c r="X24">
-        <v>21.4786602705539</v>
+        <v>21.47866027055391</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -4347,13 +4347,13 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>2.558208211429879</v>
+        <v>25.4250841315771</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>2.558208211429871</v>
+        <v>25.42508413157708</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>2.55820821142987</v>
+        <v>25.42508413157707</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="AO24">
-        <v>2.55820821142987</v>
+        <v>25.42508413157707</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -4973,6 +4973,9 @@
       <c r="D31">
         <v>356.6336095706205</v>
       </c>
+      <c r="E31">
+        <v>268.1233231484932</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
@@ -5039,7 +5042,7 @@
         <v>121</v>
       </c>
       <c r="D39">
-        <v>0.02105518422039891</v>
+        <v>0.002303491082937486</v>
       </c>
     </row>
     <row r="40" spans="1:4">
